--- a/Выгрузка garopt.xlsx
+++ b/Выгрузка garopt.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -791,7 +791,7 @@
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -996,7 +996,7 @@
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -1708,7 +1708,9 @@
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
@@ -1727,7 +1729,7 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr"/>
@@ -1809,7 +1811,9 @@
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
@@ -1828,7 +1832,7 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
@@ -1909,7 +1913,9 @@
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
@@ -1928,7 +1934,7 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr"/>
@@ -2011,7 +2017,7 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -2215,7 +2221,7 @@
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -2319,7 +2325,7 @@
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -2422,7 +2428,7 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
@@ -2526,7 +2532,7 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
@@ -2630,7 +2636,7 @@
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
@@ -2733,7 +2739,7 @@
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -3141,7 +3147,9 @@
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
@@ -3160,7 +3168,7 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr"/>
@@ -3243,7 +3251,9 @@
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
@@ -3262,7 +3272,7 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr"/>
@@ -3344,7 +3354,9 @@
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
@@ -3363,7 +3375,7 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
@@ -3447,7 +3459,7 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -3551,7 +3563,7 @@
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -3654,7 +3666,7 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -3757,7 +3769,7 @@
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
@@ -3860,7 +3872,7 @@
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
@@ -3962,7 +3974,7 @@
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -4065,7 +4077,7 @@
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
@@ -4168,7 +4180,7 @@
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -4270,7 +4282,7 @@
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -4674,7 +4686,9 @@
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -4693,7 +4707,7 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr"/>
@@ -4775,7 +4789,9 @@
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
@@ -4794,7 +4810,7 @@
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr"/>
@@ -4875,7 +4891,9 @@
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
@@ -4894,7 +4912,7 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr"/>
@@ -4977,7 +4995,7 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
@@ -5080,7 +5098,7 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
@@ -5182,7 +5200,7 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
@@ -5286,7 +5304,7 @@
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -5390,7 +5408,7 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -5493,7 +5511,7 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -6207,7 +6225,7 @@
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -6311,7 +6329,7 @@
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
@@ -6414,7 +6432,7 @@
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
@@ -6823,7 +6841,7 @@
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
@@ -6927,7 +6945,7 @@
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
@@ -7030,7 +7048,7 @@
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
@@ -7134,7 +7152,7 @@
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
@@ -7238,7 +7256,7 @@
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
@@ -7341,7 +7359,7 @@
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
@@ -7750,7 +7768,7 @@
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
@@ -7854,7 +7872,7 @@
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
@@ -7957,7 +7975,7 @@
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
@@ -8061,7 +8079,7 @@
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
@@ -8165,7 +8183,7 @@
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
@@ -8268,7 +8286,7 @@
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
@@ -8980,7 +8998,7 @@
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
@@ -9084,7 +9102,7 @@
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
@@ -9186,9 +9204,7 @@
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" s="2" t="n">
-        <v>45472</v>
-      </c>
+      <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
@@ -9207,7 +9223,7 @@
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr"/>
@@ -9291,7 +9307,7 @@
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
@@ -9395,7 +9411,7 @@
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
@@ -9498,7 +9514,7 @@
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
@@ -9907,7 +9923,7 @@
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
@@ -10011,7 +10027,7 @@
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
@@ -10114,7 +10130,7 @@
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
@@ -10826,7 +10842,9 @@
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr">
@@ -10845,7 +10863,7 @@
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr"/>
@@ -10928,7 +10946,9 @@
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
+      <c r="N101" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr">
@@ -10947,7 +10967,7 @@
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr"/>
@@ -11029,7 +11049,9 @@
         </is>
       </c>
       <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
+      <c r="N102" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
@@ -11048,7 +11070,7 @@
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr"/>
@@ -11437,7 +11459,7 @@
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
@@ -11541,7 +11563,7 @@
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
@@ -11644,7 +11666,7 @@
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
@@ -11748,7 +11770,7 @@
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
@@ -11852,7 +11874,7 @@
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
@@ -11955,7 +11977,7 @@
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
@@ -12363,7 +12385,9 @@
         </is>
       </c>
       <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
+      <c r="N115" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr">
@@ -12382,7 +12406,7 @@
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z115" t="inlineStr"/>
@@ -12465,7 +12489,9 @@
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
+      <c r="N116" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr">
@@ -12484,7 +12510,7 @@
       <c r="X116" t="inlineStr"/>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr"/>
@@ -12566,7 +12592,9 @@
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
@@ -12585,7 +12613,7 @@
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr"/>
@@ -12669,7 +12697,7 @@
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
@@ -12773,7 +12801,7 @@
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
@@ -12876,7 +12904,7 @@
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
@@ -12979,7 +13007,7 @@
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
@@ -13080,7 +13108,7 @@
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
@@ -13181,7 +13209,7 @@
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
@@ -13281,7 +13309,7 @@
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
@@ -13381,7 +13409,9 @@
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
+      <c r="N125" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr">
@@ -13400,7 +13430,7 @@
       <c r="X125" t="inlineStr"/>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr"/>
@@ -13480,7 +13510,9 @@
         </is>
       </c>
       <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
+      <c r="N126" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr">
@@ -13499,7 +13531,7 @@
       <c r="X126" t="inlineStr"/>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z126" t="inlineStr"/>
@@ -13578,7 +13610,9 @@
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
+      <c r="N127" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
@@ -13597,7 +13631,7 @@
       <c r="X127" t="inlineStr"/>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
@@ -13678,7 +13712,7 @@
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
@@ -13779,7 +13813,7 @@
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
@@ -13879,7 +13913,7 @@
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
@@ -14276,7 +14310,7 @@
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
@@ -14377,7 +14411,7 @@
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
@@ -14477,7 +14511,7 @@
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
@@ -14579,7 +14613,7 @@
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
@@ -14681,7 +14715,7 @@
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
@@ -14782,7 +14816,7 @@
       </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
@@ -14883,7 +14917,9 @@
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
+      <c r="N140" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr">
@@ -14902,7 +14938,7 @@
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr"/>
@@ -14983,7 +15019,9 @@
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr">
@@ -15002,7 +15040,7 @@
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr"/>
@@ -15082,7 +15120,9 @@
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr">
@@ -15101,7 +15141,7 @@
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr"/>
@@ -15482,7 +15522,7 @@
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
@@ -15584,7 +15624,7 @@
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
@@ -15685,7 +15725,7 @@
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
@@ -15787,7 +15827,7 @@
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
@@ -15889,7 +15929,7 @@
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
@@ -15990,7 +16030,7 @@
       </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
@@ -16091,7 +16131,7 @@
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
@@ -16192,7 +16232,7 @@
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
@@ -16292,7 +16332,7 @@
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
@@ -16392,7 +16432,9 @@
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr">
@@ -16411,7 +16453,7 @@
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr"/>
@@ -16491,7 +16533,9 @@
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
+      <c r="N156" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr">
@@ -16510,7 +16554,7 @@
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr"/>
@@ -16589,7 +16633,9 @@
         </is>
       </c>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
+      <c r="N157" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
@@ -16608,7 +16654,7 @@
       <c r="X157" t="inlineStr"/>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr"/>
@@ -16985,7 +17031,7 @@
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
@@ -17086,7 +17132,7 @@
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
@@ -17186,7 +17232,7 @@
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
@@ -17287,7 +17333,7 @@
       </c>
       <c r="M164" t="inlineStr"/>
       <c r="N164" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
@@ -17388,7 +17434,7 @@
       </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
@@ -17488,7 +17534,7 @@
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
@@ -17889,7 +17935,7 @@
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
@@ -17991,7 +18037,7 @@
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
@@ -18092,7 +18138,7 @@
       </c>
       <c r="M172" t="inlineStr"/>
       <c r="N172" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
@@ -18792,7 +18838,7 @@
       </c>
       <c r="M179" t="inlineStr"/>
       <c r="N179" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
@@ -18894,7 +18940,7 @@
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
@@ -18995,7 +19041,7 @@
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
@@ -19097,7 +19143,7 @@
       </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
@@ -19199,7 +19245,7 @@
       </c>
       <c r="M183" t="inlineStr"/>
       <c r="N183" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
@@ -19300,7 +19346,7 @@
       </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
@@ -19401,9 +19447,7 @@
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
-      <c r="N185" s="2" t="n">
-        <v>45472</v>
-      </c>
+      <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr">
@@ -19422,7 +19466,7 @@
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr"/>
@@ -19503,9 +19547,7 @@
         </is>
       </c>
       <c r="M186" t="inlineStr"/>
-      <c r="N186" s="2" t="n">
-        <v>45472</v>
-      </c>
+      <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr">
@@ -19524,7 +19566,7 @@
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z186" t="inlineStr"/>
@@ -19604,9 +19646,7 @@
         </is>
       </c>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" s="2" t="n">
-        <v>45472</v>
-      </c>
+      <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr">
@@ -19625,7 +19665,7 @@
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z187" t="inlineStr"/>
@@ -20006,7 +20046,7 @@
       </c>
       <c r="M191" t="inlineStr"/>
       <c r="N191" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -20108,7 +20148,7 @@
       </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -20209,7 +20249,7 @@
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
@@ -20311,7 +20351,7 @@
       </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
@@ -20413,7 +20453,7 @@
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
@@ -20515,7 +20555,7 @@
       </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
@@ -20617,7 +20657,7 @@
       </c>
       <c r="M197" t="inlineStr"/>
       <c r="N197" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -20718,7 +20758,7 @@
       </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
@@ -20819,9 +20859,7 @@
         </is>
       </c>
       <c r="M199" t="inlineStr"/>
-      <c r="N199" s="2" t="n">
-        <v>45472</v>
-      </c>
+      <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr">
@@ -20840,7 +20878,7 @@
       <c r="X199" t="inlineStr"/>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z199" t="inlineStr"/>
@@ -20921,9 +20959,7 @@
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
-      <c r="N200" s="2" t="n">
-        <v>45472</v>
-      </c>
+      <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr"/>
       <c r="Q200" t="inlineStr">
@@ -20942,7 +20978,7 @@
       <c r="X200" t="inlineStr"/>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z200" t="inlineStr"/>
@@ -21022,9 +21058,7 @@
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
-      <c r="N201" s="2" t="n">
-        <v>45472</v>
-      </c>
+      <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr">
@@ -21043,7 +21077,7 @@
       <c r="X201" t="inlineStr"/>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z201" t="inlineStr"/>
@@ -21125,7 +21159,7 @@
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
@@ -21227,7 +21261,7 @@
       </c>
       <c r="M203" t="inlineStr"/>
       <c r="N203" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
@@ -21328,7 +21362,7 @@
       </c>
       <c r="M204" t="inlineStr"/>
       <c r="N204" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
@@ -22226,7 +22260,9 @@
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr"/>
+      <c r="N213" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="inlineStr">
@@ -22245,7 +22281,7 @@
       <c r="X213" t="inlineStr"/>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z213" t="inlineStr"/>
@@ -22326,7 +22362,9 @@
         </is>
       </c>
       <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr"/>
+      <c r="N214" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="inlineStr">
@@ -22345,7 +22383,7 @@
       <c r="X214" t="inlineStr"/>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z214" t="inlineStr"/>
@@ -22425,7 +22463,9 @@
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
-      <c r="N215" t="inlineStr"/>
+      <c r="N215" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="inlineStr">
@@ -22444,7 +22484,7 @@
       <c r="X215" t="inlineStr"/>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z215" t="inlineStr"/>
@@ -23123,7 +23163,7 @@
       </c>
       <c r="M222" t="inlineStr"/>
       <c r="N222" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr"/>
@@ -23225,7 +23265,7 @@
       </c>
       <c r="M223" t="inlineStr"/>
       <c r="N223" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr"/>
@@ -23326,7 +23366,7 @@
       </c>
       <c r="M224" t="inlineStr"/>
       <c r="N224" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr"/>
@@ -23428,7 +23468,7 @@
       </c>
       <c r="M225" t="inlineStr"/>
       <c r="N225" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr"/>
@@ -23530,7 +23570,7 @@
       </c>
       <c r="M226" t="inlineStr"/>
       <c r="N226" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr"/>
@@ -23631,7 +23671,7 @@
       </c>
       <c r="M227" t="inlineStr"/>
       <c r="N227" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr"/>
@@ -24331,7 +24371,7 @@
       </c>
       <c r="M234" t="inlineStr"/>
       <c r="N234" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr"/>
@@ -24433,7 +24473,7 @@
       </c>
       <c r="M235" t="inlineStr"/>
       <c r="N235" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr"/>
@@ -24534,7 +24574,7 @@
       </c>
       <c r="M236" t="inlineStr"/>
       <c r="N236" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr"/>
@@ -24636,7 +24676,7 @@
       </c>
       <c r="M237" t="inlineStr"/>
       <c r="N237" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr"/>
@@ -24738,7 +24778,7 @@
       </c>
       <c r="M238" t="inlineStr"/>
       <c r="N238" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr"/>
@@ -24839,7 +24879,7 @@
       </c>
       <c r="M239" t="inlineStr"/>
       <c r="N239" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr"/>
@@ -25533,9 +25573,7 @@
         </is>
       </c>
       <c r="M246" t="inlineStr"/>
-      <c r="N246" s="2" t="n">
-        <v>45472</v>
-      </c>
+      <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr"/>
       <c r="Q246" t="inlineStr">
@@ -25554,7 +25592,7 @@
       <c r="X246" t="inlineStr"/>
       <c r="Y246" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z246" t="inlineStr"/>
@@ -25634,9 +25672,7 @@
         </is>
       </c>
       <c r="M247" t="inlineStr"/>
-      <c r="N247" s="2" t="n">
-        <v>45472</v>
-      </c>
+      <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr"/>
       <c r="Q247" t="inlineStr">
@@ -25655,7 +25691,7 @@
       <c r="X247" t="inlineStr"/>
       <c r="Y247" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z247" t="inlineStr"/>
@@ -26654,7 +26690,7 @@
       </c>
       <c r="M257" t="inlineStr"/>
       <c r="N257" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr"/>
@@ -26758,7 +26794,7 @@
       </c>
       <c r="M258" t="inlineStr"/>
       <c r="N258" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr"/>
@@ -26861,7 +26897,7 @@
       </c>
       <c r="M259" t="inlineStr"/>
       <c r="N259" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr"/>
@@ -27770,7 +27806,7 @@
       </c>
       <c r="M268" t="inlineStr"/>
       <c r="N268" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr"/>
@@ -27873,7 +27909,7 @@
       </c>
       <c r="M269" t="inlineStr"/>
       <c r="N269" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr"/>
@@ -28278,7 +28314,7 @@
       </c>
       <c r="M273" t="inlineStr"/>
       <c r="N273" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr"/>
@@ -28381,7 +28417,7 @@
       </c>
       <c r="M274" t="inlineStr"/>
       <c r="N274" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="inlineStr"/>
@@ -28977,7 +29013,9 @@
         </is>
       </c>
       <c r="M280" t="inlineStr"/>
-      <c r="N280" t="inlineStr"/>
+      <c r="N280" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="inlineStr"/>
       <c r="Q280" t="inlineStr">
@@ -28996,7 +29034,7 @@
       <c r="X280" t="inlineStr"/>
       <c r="Y280" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z280" t="inlineStr"/>
@@ -29583,7 +29621,9 @@
         </is>
       </c>
       <c r="M286" t="inlineStr"/>
-      <c r="N286" t="inlineStr"/>
+      <c r="N286" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="inlineStr"/>
       <c r="Q286" t="inlineStr">
@@ -29602,7 +29642,7 @@
       <c r="X286" t="inlineStr"/>
       <c r="Y286" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z286" t="inlineStr"/>
@@ -29786,7 +29826,9 @@
         </is>
       </c>
       <c r="M288" t="inlineStr"/>
-      <c r="N288" t="inlineStr"/>
+      <c r="N288" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="inlineStr"/>
       <c r="Q288" t="inlineStr">
@@ -29805,7 +29847,7 @@
       <c r="X288" t="inlineStr"/>
       <c r="Y288" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z288" t="inlineStr"/>
@@ -30684,9 +30726,7 @@
         </is>
       </c>
       <c r="M297" t="inlineStr"/>
-      <c r="N297" s="2" t="n">
-        <v>45472</v>
-      </c>
+      <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="inlineStr"/>
       <c r="Q297" t="inlineStr">
@@ -30705,7 +30745,7 @@
       <c r="X297" t="inlineStr"/>
       <c r="Y297" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z297" t="inlineStr"/>
@@ -31070,7 +31110,7 @@
       </c>
       <c r="M301" t="inlineStr"/>
       <c r="N301" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="inlineStr"/>
@@ -31162,7 +31202,7 @@
       </c>
       <c r="M302" t="inlineStr"/>
       <c r="N302" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="inlineStr"/>
@@ -31255,7 +31295,7 @@
       </c>
       <c r="M303" t="inlineStr"/>
       <c r="N303" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="inlineStr"/>
@@ -31347,7 +31387,7 @@
       </c>
       <c r="M304" t="inlineStr"/>
       <c r="N304" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O304" t="inlineStr"/>
       <c r="P304" t="inlineStr"/>
@@ -31439,7 +31479,7 @@
       </c>
       <c r="M305" t="inlineStr"/>
       <c r="N305" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr"/>
@@ -32005,7 +32045,7 @@
       </c>
       <c r="M311" t="inlineStr"/>
       <c r="N311" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O311" t="inlineStr"/>
       <c r="P311" t="inlineStr"/>
@@ -32098,7 +32138,7 @@
       </c>
       <c r="M312" t="inlineStr"/>
       <c r="N312" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="inlineStr"/>
@@ -32289,7 +32329,7 @@
       </c>
       <c r="M314" t="inlineStr"/>
       <c r="N314" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr"/>
@@ -32579,7 +32619,9 @@
         </is>
       </c>
       <c r="M317" t="inlineStr"/>
-      <c r="N317" t="inlineStr"/>
+      <c r="N317" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr"/>
       <c r="Q317" t="inlineStr">
@@ -32598,7 +32640,7 @@
       <c r="X317" t="inlineStr"/>
       <c r="Y317" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z317" t="inlineStr"/>
@@ -32670,7 +32712,7 @@
       </c>
       <c r="M318" t="inlineStr"/>
       <c r="N318" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr"/>
@@ -32858,7 +32900,7 @@
       </c>
       <c r="M320" t="inlineStr"/>
       <c r="N320" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr"/>
@@ -33136,7 +33178,7 @@
       </c>
       <c r="M323" t="inlineStr"/>
       <c r="N323" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="inlineStr"/>
@@ -33228,7 +33270,7 @@
       </c>
       <c r="M324" t="inlineStr"/>
       <c r="N324" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr"/>
@@ -33327,7 +33369,7 @@
       </c>
       <c r="M325" t="inlineStr"/>
       <c r="N325" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="inlineStr"/>
@@ -33426,7 +33468,7 @@
       </c>
       <c r="M326" t="inlineStr"/>
       <c r="N326" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="inlineStr"/>
@@ -33804,7 +33846,7 @@
       </c>
       <c r="M330" t="inlineStr"/>
       <c r="N330" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O330" t="inlineStr"/>
       <c r="P330" t="inlineStr"/>
@@ -33896,7 +33938,7 @@
       </c>
       <c r="M331" t="inlineStr"/>
       <c r="N331" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr"/>
@@ -33989,7 +34031,7 @@
       </c>
       <c r="M332" t="inlineStr"/>
       <c r="N332" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="inlineStr"/>
@@ -34177,7 +34219,7 @@
       </c>
       <c r="M334" t="inlineStr"/>
       <c r="N334" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr"/>
@@ -34735,7 +34777,7 @@
       </c>
       <c r="M340" t="inlineStr"/>
       <c r="N340" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="inlineStr"/>
@@ -34918,7 +34960,7 @@
       </c>
       <c r="M342" t="inlineStr"/>
       <c r="N342" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="inlineStr"/>
@@ -35557,9 +35599,7 @@
         </is>
       </c>
       <c r="M349" t="inlineStr"/>
-      <c r="N349" s="2" t="n">
-        <v>45472</v>
-      </c>
+      <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="inlineStr"/>
       <c r="Q349" t="inlineStr">
@@ -35578,7 +35618,7 @@
       <c r="X349" t="inlineStr"/>
       <c r="Y349" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z349" t="inlineStr"/>
@@ -35955,7 +35995,7 @@
       </c>
       <c r="M353" t="inlineStr"/>
       <c r="N353" s="2" t="n">
-        <v>45472</v>
+        <v>45298</v>
       </c>
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr"/>

--- a/Выгрузка garopt.xlsx
+++ b/Выгрузка garopt.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -790,8 +786,10 @@
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" s="2" t="n">
-        <v>45298</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -893,8 +891,10 @@
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" s="2" t="n">
-        <v>45298</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -995,8 +995,10 @@
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" s="2" t="n">
-        <v>45298</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -1400,8 +1402,10 @@
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" s="2" t="n">
-        <v>45298</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -1503,8 +1507,10 @@
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" s="2" t="n">
-        <v>45298</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
@@ -1605,8 +1611,10 @@
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" s="2" t="n">
-        <v>45298</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -1708,8 +1716,10 @@
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" s="2" t="n">
-        <v>45298</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1811,8 +1821,10 @@
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" s="2" t="n">
-        <v>45298</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -1913,8 +1925,10 @@
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" s="2" t="n">
-        <v>45298</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
@@ -2016,8 +2030,10 @@
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" s="2" t="n">
-        <v>45298</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -2220,8 +2236,10 @@
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" s="2" t="n">
-        <v>45298</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -2324,8 +2342,10 @@
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" s="2" t="n">
-        <v>45298</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -2427,8 +2447,10 @@
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" s="2" t="n">
-        <v>45298</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
@@ -2531,8 +2553,10 @@
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" s="2" t="n">
-        <v>45298</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
@@ -2635,8 +2659,10 @@
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" s="2" t="n">
-        <v>45298</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
@@ -2738,8 +2764,10 @@
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" s="2" t="n">
-        <v>45298</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -3147,8 +3175,10 @@
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" s="2" t="n">
-        <v>45298</v>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
@@ -3251,8 +3281,10 @@
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" s="2" t="n">
-        <v>45298</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -3354,8 +3386,10 @@
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" s="2" t="n">
-        <v>45298</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -3458,8 +3492,10 @@
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" s="2" t="n">
-        <v>45298</v>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -3562,8 +3598,10 @@
         </is>
       </c>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" s="2" t="n">
-        <v>45298</v>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -3665,8 +3703,10 @@
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" s="2" t="n">
-        <v>45298</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -3768,8 +3808,10 @@
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" s="2" t="n">
-        <v>45298</v>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
@@ -3871,8 +3913,10 @@
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" s="2" t="n">
-        <v>45298</v>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
@@ -3973,8 +4017,10 @@
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" s="2" t="n">
-        <v>45298</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -4076,8 +4122,10 @@
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" s="2" t="n">
-        <v>45298</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
@@ -4179,8 +4227,10 @@
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" s="2" t="n">
-        <v>45298</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -4281,8 +4331,10 @@
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" s="2" t="n">
-        <v>45298</v>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -4686,8 +4738,10 @@
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" s="2" t="n">
-        <v>45298</v>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -4789,8 +4843,10 @@
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" s="2" t="n">
-        <v>45298</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -4891,8 +4947,10 @@
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" s="2" t="n">
-        <v>45298</v>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
@@ -4994,8 +5052,10 @@
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" s="2" t="n">
-        <v>45298</v>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
@@ -5097,8 +5157,10 @@
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" s="2" t="n">
-        <v>45298</v>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
@@ -5199,8 +5261,10 @@
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" s="2" t="n">
-        <v>45298</v>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
@@ -5303,8 +5367,10 @@
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" s="2" t="n">
-        <v>45298</v>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -5407,8 +5473,10 @@
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" s="2" t="n">
-        <v>45298</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -5510,8 +5578,10 @@
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" s="2" t="n">
-        <v>45298</v>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -6224,8 +6294,10 @@
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" s="2" t="n">
-        <v>45298</v>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -6328,8 +6400,10 @@
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" s="2" t="n">
-        <v>45298</v>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
@@ -6431,8 +6505,10 @@
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" s="2" t="n">
-        <v>45298</v>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
@@ -6840,8 +6916,10 @@
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" s="2" t="n">
-        <v>45298</v>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
@@ -6944,8 +7022,10 @@
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" s="2" t="n">
-        <v>45298</v>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
@@ -7047,8 +7127,10 @@
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" s="2" t="n">
-        <v>45298</v>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
@@ -7151,8 +7233,10 @@
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" s="2" t="n">
-        <v>45298</v>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
@@ -7255,8 +7339,10 @@
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" s="2" t="n">
-        <v>45298</v>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
@@ -7358,8 +7444,10 @@
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" s="2" t="n">
-        <v>45298</v>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
@@ -7767,8 +7855,10 @@
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" s="2" t="n">
-        <v>45298</v>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
@@ -7871,8 +7961,10 @@
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" s="2" t="n">
-        <v>45298</v>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
@@ -7974,8 +8066,10 @@
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" s="2" t="n">
-        <v>45298</v>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
@@ -8078,8 +8172,10 @@
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" s="2" t="n">
-        <v>45298</v>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
@@ -8182,8 +8278,10 @@
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" s="2" t="n">
-        <v>45298</v>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
@@ -8285,8 +8383,10 @@
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" s="2" t="n">
-        <v>45298</v>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
@@ -8997,8 +9097,10 @@
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" s="2" t="n">
-        <v>45298</v>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
@@ -9101,8 +9203,10 @@
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" s="2" t="n">
-        <v>45298</v>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
@@ -9306,8 +9410,10 @@
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" s="2" t="n">
-        <v>45298</v>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
@@ -9410,8 +9516,10 @@
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" s="2" t="n">
-        <v>45298</v>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
@@ -9513,8 +9621,10 @@
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" s="2" t="n">
-        <v>45298</v>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
@@ -9922,8 +10032,10 @@
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" s="2" t="n">
-        <v>45298</v>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
@@ -10026,8 +10138,10 @@
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" s="2" t="n">
-        <v>45298</v>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
@@ -10129,8 +10243,10 @@
         </is>
       </c>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" s="2" t="n">
-        <v>45298</v>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
@@ -10842,8 +10958,10 @@
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
-      <c r="N100" s="2" t="n">
-        <v>45298</v>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
@@ -10946,8 +11064,10 @@
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" s="2" t="n">
-        <v>45298</v>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
@@ -11049,8 +11169,10 @@
         </is>
       </c>
       <c r="M102" t="inlineStr"/>
-      <c r="N102" s="2" t="n">
-        <v>45298</v>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
@@ -11458,8 +11580,10 @@
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
-      <c r="N106" s="2" t="n">
-        <v>45298</v>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
@@ -11562,8 +11686,10 @@
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
-      <c r="N107" s="2" t="n">
-        <v>45298</v>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
@@ -11665,8 +11791,10 @@
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" s="2" t="n">
-        <v>45298</v>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
@@ -11769,8 +11897,10 @@
         </is>
       </c>
       <c r="M109" t="inlineStr"/>
-      <c r="N109" s="2" t="n">
-        <v>45298</v>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
@@ -11873,8 +12003,10 @@
         </is>
       </c>
       <c r="M110" t="inlineStr"/>
-      <c r="N110" s="2" t="n">
-        <v>45298</v>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
@@ -11976,8 +12108,10 @@
         </is>
       </c>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" s="2" t="n">
-        <v>45298</v>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
@@ -12385,8 +12519,10 @@
         </is>
       </c>
       <c r="M115" t="inlineStr"/>
-      <c r="N115" s="2" t="n">
-        <v>45298</v>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
@@ -12489,8 +12625,10 @@
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
-      <c r="N116" s="2" t="n">
-        <v>45298</v>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
@@ -12592,8 +12730,10 @@
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" s="2" t="n">
-        <v>45298</v>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
@@ -12696,8 +12836,10 @@
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
-      <c r="N118" s="2" t="n">
-        <v>45298</v>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
@@ -12800,8 +12942,10 @@
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" s="2" t="n">
-        <v>45298</v>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
@@ -12903,8 +13047,10 @@
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" s="2" t="n">
-        <v>45298</v>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
@@ -13006,8 +13152,10 @@
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" s="2" t="n">
-        <v>45298</v>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
@@ -13107,8 +13255,10 @@
         </is>
       </c>
       <c r="M122" t="inlineStr"/>
-      <c r="N122" s="2" t="n">
-        <v>45298</v>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
@@ -13208,8 +13358,10 @@
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
-      <c r="N123" s="2" t="n">
-        <v>45298</v>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
@@ -13308,8 +13460,10 @@
         </is>
       </c>
       <c r="M124" t="inlineStr"/>
-      <c r="N124" s="2" t="n">
-        <v>45298</v>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
@@ -13409,8 +13563,10 @@
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
-      <c r="N125" s="2" t="n">
-        <v>45298</v>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
@@ -13510,8 +13666,10 @@
         </is>
       </c>
       <c r="M126" t="inlineStr"/>
-      <c r="N126" s="2" t="n">
-        <v>45298</v>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
@@ -13610,8 +13768,10 @@
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
-      <c r="N127" s="2" t="n">
-        <v>45298</v>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
@@ -13711,8 +13871,10 @@
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" s="2" t="n">
-        <v>45298</v>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
@@ -13812,8 +13974,10 @@
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
-      <c r="N129" s="2" t="n">
-        <v>45298</v>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
@@ -13912,8 +14076,10 @@
         </is>
       </c>
       <c r="M130" t="inlineStr"/>
-      <c r="N130" s="2" t="n">
-        <v>45298</v>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
@@ -14309,8 +14475,10 @@
         </is>
       </c>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" s="2" t="n">
-        <v>45298</v>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
@@ -14410,8 +14578,10 @@
         </is>
       </c>
       <c r="M135" t="inlineStr"/>
-      <c r="N135" s="2" t="n">
-        <v>45298</v>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
@@ -14510,8 +14680,10 @@
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
-      <c r="N136" s="2" t="n">
-        <v>45298</v>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
@@ -14612,8 +14784,10 @@
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
-      <c r="N137" s="2" t="n">
-        <v>45298</v>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
@@ -14714,8 +14888,10 @@
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
-      <c r="N138" s="2" t="n">
-        <v>45298</v>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
@@ -14815,8 +14991,10 @@
         </is>
       </c>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" s="2" t="n">
-        <v>45298</v>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
@@ -14917,8 +15095,10 @@
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" s="2" t="n">
-        <v>45298</v>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
@@ -15019,8 +15199,10 @@
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" s="2" t="n">
-        <v>45298</v>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
@@ -15120,8 +15302,10 @@
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" s="2" t="n">
-        <v>45298</v>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
@@ -15521,8 +15705,10 @@
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" s="2" t="n">
-        <v>45298</v>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
@@ -15623,8 +15809,10 @@
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" s="2" t="n">
-        <v>45298</v>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
@@ -15724,8 +15912,10 @@
         </is>
       </c>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" s="2" t="n">
-        <v>45298</v>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
@@ -15826,8 +16016,10 @@
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" s="2" t="n">
-        <v>45298</v>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
@@ -15928,8 +16120,10 @@
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" s="2" t="n">
-        <v>45298</v>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
@@ -16029,8 +16223,10 @@
         </is>
       </c>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" s="2" t="n">
-        <v>45298</v>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
@@ -16130,8 +16326,10 @@
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" s="2" t="n">
-        <v>45298</v>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
@@ -16231,8 +16429,10 @@
         </is>
       </c>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" s="2" t="n">
-        <v>45298</v>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
@@ -16331,8 +16531,10 @@
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" s="2" t="n">
-        <v>45298</v>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
@@ -16432,8 +16634,10 @@
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" s="2" t="n">
-        <v>45298</v>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
@@ -16533,8 +16737,10 @@
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" s="2" t="n">
-        <v>45298</v>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
@@ -16633,8 +16839,10 @@
         </is>
       </c>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" s="2" t="n">
-        <v>45298</v>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
@@ -17030,8 +17238,10 @@
         </is>
       </c>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" s="2" t="n">
-        <v>45298</v>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
@@ -17131,8 +17341,10 @@
         </is>
       </c>
       <c r="M162" t="inlineStr"/>
-      <c r="N162" s="2" t="n">
-        <v>45298</v>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
@@ -17231,8 +17443,10 @@
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" s="2" t="n">
-        <v>45298</v>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
@@ -17332,8 +17546,10 @@
         </is>
       </c>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" s="2" t="n">
-        <v>45298</v>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
@@ -17433,8 +17649,10 @@
         </is>
       </c>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" s="2" t="n">
-        <v>45298</v>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
@@ -17533,8 +17751,10 @@
         </is>
       </c>
       <c r="M166" t="inlineStr"/>
-      <c r="N166" s="2" t="n">
-        <v>45298</v>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
@@ -17934,8 +18154,10 @@
         </is>
       </c>
       <c r="M170" t="inlineStr"/>
-      <c r="N170" s="2" t="n">
-        <v>45298</v>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
@@ -18036,8 +18258,10 @@
         </is>
       </c>
       <c r="M171" t="inlineStr"/>
-      <c r="N171" s="2" t="n">
-        <v>45298</v>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
@@ -18137,8 +18361,10 @@
         </is>
       </c>
       <c r="M172" t="inlineStr"/>
-      <c r="N172" s="2" t="n">
-        <v>45298</v>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
@@ -18837,8 +19063,10 @@
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
-      <c r="N179" s="2" t="n">
-        <v>45298</v>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
@@ -18939,8 +19167,10 @@
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" s="2" t="n">
-        <v>45298</v>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
@@ -19040,8 +19270,10 @@
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" s="2" t="n">
-        <v>45298</v>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
@@ -19142,8 +19374,10 @@
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" s="2" t="n">
-        <v>45298</v>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
@@ -19244,8 +19478,10 @@
         </is>
       </c>
       <c r="M183" t="inlineStr"/>
-      <c r="N183" s="2" t="n">
-        <v>45298</v>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
@@ -19345,8 +19581,10 @@
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
-      <c r="N184" s="2" t="n">
-        <v>45298</v>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
@@ -20045,8 +20283,10 @@
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" s="2" t="n">
-        <v>45298</v>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -20147,8 +20387,10 @@
         </is>
       </c>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" s="2" t="n">
-        <v>45298</v>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -20248,8 +20490,10 @@
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
-      <c r="N193" s="2" t="n">
-        <v>45298</v>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
@@ -20350,8 +20594,10 @@
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
-      <c r="N194" s="2" t="n">
-        <v>45298</v>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
@@ -20452,8 +20698,10 @@
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" s="2" t="n">
-        <v>45298</v>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
@@ -20554,8 +20802,10 @@
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" s="2" t="n">
-        <v>45298</v>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
@@ -20656,8 +20906,10 @@
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
-      <c r="N197" s="2" t="n">
-        <v>45298</v>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -20757,8 +21009,10 @@
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
-      <c r="N198" s="2" t="n">
-        <v>45298</v>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
@@ -21158,8 +21412,10 @@
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
-      <c r="N202" s="2" t="n">
-        <v>45298</v>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
@@ -21260,8 +21516,10 @@
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
-      <c r="N203" s="2" t="n">
-        <v>45298</v>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
@@ -21361,8 +21619,10 @@
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
-      <c r="N204" s="2" t="n">
-        <v>45298</v>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
@@ -22260,8 +22520,10 @@
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
-      <c r="N213" s="2" t="n">
-        <v>45298</v>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
@@ -22362,8 +22624,10 @@
         </is>
       </c>
       <c r="M214" t="inlineStr"/>
-      <c r="N214" s="2" t="n">
-        <v>45298</v>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
@@ -22463,8 +22727,10 @@
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
-      <c r="N215" s="2" t="n">
-        <v>45298</v>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
@@ -23162,8 +23428,10 @@
         </is>
       </c>
       <c r="M222" t="inlineStr"/>
-      <c r="N222" s="2" t="n">
-        <v>45298</v>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr"/>
@@ -23264,8 +23532,10 @@
         </is>
       </c>
       <c r="M223" t="inlineStr"/>
-      <c r="N223" s="2" t="n">
-        <v>45298</v>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr"/>
@@ -23365,8 +23635,10 @@
         </is>
       </c>
       <c r="M224" t="inlineStr"/>
-      <c r="N224" s="2" t="n">
-        <v>45298</v>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr"/>
@@ -23467,8 +23739,10 @@
         </is>
       </c>
       <c r="M225" t="inlineStr"/>
-      <c r="N225" s="2" t="n">
-        <v>45298</v>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr"/>
@@ -23569,8 +23843,10 @@
         </is>
       </c>
       <c r="M226" t="inlineStr"/>
-      <c r="N226" s="2" t="n">
-        <v>45298</v>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr"/>
@@ -23670,8 +23946,10 @@
         </is>
       </c>
       <c r="M227" t="inlineStr"/>
-      <c r="N227" s="2" t="n">
-        <v>45298</v>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr"/>
@@ -24370,8 +24648,10 @@
         </is>
       </c>
       <c r="M234" t="inlineStr"/>
-      <c r="N234" s="2" t="n">
-        <v>45298</v>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr"/>
@@ -24472,8 +24752,10 @@
         </is>
       </c>
       <c r="M235" t="inlineStr"/>
-      <c r="N235" s="2" t="n">
-        <v>45298</v>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr"/>
@@ -24573,8 +24855,10 @@
         </is>
       </c>
       <c r="M236" t="inlineStr"/>
-      <c r="N236" s="2" t="n">
-        <v>45298</v>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr"/>
@@ -24675,8 +24959,10 @@
         </is>
       </c>
       <c r="M237" t="inlineStr"/>
-      <c r="N237" s="2" t="n">
-        <v>45298</v>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr"/>
@@ -24777,8 +25063,10 @@
         </is>
       </c>
       <c r="M238" t="inlineStr"/>
-      <c r="N238" s="2" t="n">
-        <v>45298</v>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr"/>
@@ -24878,8 +25166,10 @@
         </is>
       </c>
       <c r="M239" t="inlineStr"/>
-      <c r="N239" s="2" t="n">
-        <v>45298</v>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr"/>
@@ -26689,8 +26979,10 @@
         </is>
       </c>
       <c r="M257" t="inlineStr"/>
-      <c r="N257" s="2" t="n">
-        <v>45298</v>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr"/>
@@ -26793,8 +27085,10 @@
         </is>
       </c>
       <c r="M258" t="inlineStr"/>
-      <c r="N258" s="2" t="n">
-        <v>45298</v>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr"/>
@@ -26896,8 +27190,10 @@
         </is>
       </c>
       <c r="M259" t="inlineStr"/>
-      <c r="N259" s="2" t="n">
-        <v>45298</v>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr"/>
@@ -27805,8 +28101,10 @@
         </is>
       </c>
       <c r="M268" t="inlineStr"/>
-      <c r="N268" s="2" t="n">
-        <v>45298</v>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr"/>
@@ -27908,8 +28206,10 @@
         </is>
       </c>
       <c r="M269" t="inlineStr"/>
-      <c r="N269" s="2" t="n">
-        <v>45298</v>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr"/>
@@ -28313,8 +28613,10 @@
         </is>
       </c>
       <c r="M273" t="inlineStr"/>
-      <c r="N273" s="2" t="n">
-        <v>45298</v>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr"/>
@@ -28416,8 +28718,10 @@
         </is>
       </c>
       <c r="M274" t="inlineStr"/>
-      <c r="N274" s="2" t="n">
-        <v>45298</v>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="inlineStr"/>
@@ -29013,8 +29317,10 @@
         </is>
       </c>
       <c r="M280" t="inlineStr"/>
-      <c r="N280" s="2" t="n">
-        <v>45298</v>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="inlineStr"/>
@@ -29621,8 +29927,10 @@
         </is>
       </c>
       <c r="M286" t="inlineStr"/>
-      <c r="N286" s="2" t="n">
-        <v>45298</v>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="inlineStr"/>
@@ -29826,8 +30134,10 @@
         </is>
       </c>
       <c r="M288" t="inlineStr"/>
-      <c r="N288" s="2" t="n">
-        <v>45298</v>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="inlineStr"/>
@@ -31109,9 +31419,7 @@
         </is>
       </c>
       <c r="M301" t="inlineStr"/>
-      <c r="N301" s="2" t="n">
-        <v>45298</v>
-      </c>
+      <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="inlineStr"/>
       <c r="Q301" t="inlineStr">
@@ -31130,7 +31438,7 @@
       <c r="X301" t="inlineStr"/>
       <c r="Y301" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z301" t="inlineStr"/>
@@ -31201,8 +31509,10 @@
         </is>
       </c>
       <c r="M302" t="inlineStr"/>
-      <c r="N302" s="2" t="n">
-        <v>45298</v>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="inlineStr"/>
@@ -31294,8 +31604,10 @@
         </is>
       </c>
       <c r="M303" t="inlineStr"/>
-      <c r="N303" s="2" t="n">
-        <v>45298</v>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="inlineStr"/>
@@ -31386,8 +31698,10 @@
         </is>
       </c>
       <c r="M304" t="inlineStr"/>
-      <c r="N304" s="2" t="n">
-        <v>45298</v>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O304" t="inlineStr"/>
       <c r="P304" t="inlineStr"/>
@@ -31478,8 +31792,10 @@
         </is>
       </c>
       <c r="M305" t="inlineStr"/>
-      <c r="N305" s="2" t="n">
-        <v>45298</v>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr"/>
@@ -32044,8 +32360,10 @@
         </is>
       </c>
       <c r="M311" t="inlineStr"/>
-      <c r="N311" s="2" t="n">
-        <v>45298</v>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O311" t="inlineStr"/>
       <c r="P311" t="inlineStr"/>
@@ -32137,8 +32455,10 @@
         </is>
       </c>
       <c r="M312" t="inlineStr"/>
-      <c r="N312" s="2" t="n">
-        <v>45298</v>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="inlineStr"/>
@@ -32328,9 +32648,7 @@
         </is>
       </c>
       <c r="M314" t="inlineStr"/>
-      <c r="N314" s="2" t="n">
-        <v>45298</v>
-      </c>
+      <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr"/>
       <c r="Q314" t="inlineStr">
@@ -32349,7 +32667,7 @@
       <c r="X314" t="inlineStr"/>
       <c r="Y314" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z314" t="inlineStr"/>
@@ -32619,8 +32937,10 @@
         </is>
       </c>
       <c r="M317" t="inlineStr"/>
-      <c r="N317" s="2" t="n">
-        <v>45298</v>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr"/>
@@ -32711,8 +33031,10 @@
         </is>
       </c>
       <c r="M318" t="inlineStr"/>
-      <c r="N318" s="2" t="n">
-        <v>45298</v>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr"/>
@@ -32899,8 +33221,10 @@
         </is>
       </c>
       <c r="M320" t="inlineStr"/>
-      <c r="N320" s="2" t="n">
-        <v>45298</v>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr"/>
@@ -33177,8 +33501,10 @@
         </is>
       </c>
       <c r="M323" t="inlineStr"/>
-      <c r="N323" s="2" t="n">
-        <v>45298</v>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="inlineStr"/>
@@ -33269,8 +33595,10 @@
         </is>
       </c>
       <c r="M324" t="inlineStr"/>
-      <c r="N324" s="2" t="n">
-        <v>45298</v>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr"/>
@@ -33368,8 +33696,10 @@
         </is>
       </c>
       <c r="M325" t="inlineStr"/>
-      <c r="N325" s="2" t="n">
-        <v>45298</v>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="inlineStr"/>
@@ -33467,8 +33797,10 @@
         </is>
       </c>
       <c r="M326" t="inlineStr"/>
-      <c r="N326" s="2" t="n">
-        <v>45298</v>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="inlineStr"/>
@@ -33845,8 +34177,10 @@
         </is>
       </c>
       <c r="M330" t="inlineStr"/>
-      <c r="N330" s="2" t="n">
-        <v>45298</v>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O330" t="inlineStr"/>
       <c r="P330" t="inlineStr"/>
@@ -33937,8 +34271,10 @@
         </is>
       </c>
       <c r="M331" t="inlineStr"/>
-      <c r="N331" s="2" t="n">
-        <v>45298</v>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr"/>
@@ -34030,8 +34366,10 @@
         </is>
       </c>
       <c r="M332" t="inlineStr"/>
-      <c r="N332" s="2" t="n">
-        <v>45298</v>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="inlineStr"/>
@@ -34218,8 +34556,10 @@
         </is>
       </c>
       <c r="M334" t="inlineStr"/>
-      <c r="N334" s="2" t="n">
-        <v>45298</v>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr"/>
@@ -34776,8 +35116,10 @@
         </is>
       </c>
       <c r="M340" t="inlineStr"/>
-      <c r="N340" s="2" t="n">
-        <v>45298</v>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="inlineStr"/>
@@ -34959,8 +35301,10 @@
         </is>
       </c>
       <c r="M342" t="inlineStr"/>
-      <c r="N342" s="2" t="n">
-        <v>45298</v>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="inlineStr"/>
@@ -35994,8 +36338,10 @@
         </is>
       </c>
       <c r="M353" t="inlineStr"/>
-      <c r="N353" s="2" t="n">
-        <v>45298</v>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
       </c>
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr"/>

--- a/Выгрузка garopt.xlsx
+++ b/Выгрузка garopt.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -788,7 +788,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -893,7 +893,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -997,7 +997,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -1402,11 +1402,7 @@
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
@@ -1425,7 +1421,7 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
@@ -1507,11 +1503,7 @@
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
@@ -1530,7 +1522,7 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr"/>
@@ -1611,11 +1603,7 @@
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
@@ -1634,7 +1622,7 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr"/>
@@ -1718,7 +1706,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1823,7 +1811,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1927,7 +1915,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -2032,7 +2020,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -2238,7 +2226,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2344,7 +2332,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -2449,7 +2437,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -2553,11 +2541,7 @@
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
@@ -2576,7 +2560,7 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr"/>
@@ -2659,11 +2643,7 @@
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
@@ -2682,7 +2662,7 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr"/>
@@ -2764,11 +2744,7 @@
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
@@ -2787,7 +2763,7 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr"/>
@@ -3177,7 +3153,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3283,7 +3259,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3388,7 +3364,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3494,7 +3470,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -3600,7 +3576,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -3705,7 +3681,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -3810,7 +3786,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -3915,7 +3891,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -4019,7 +3995,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -4122,11 +4098,7 @@
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
@@ -4145,7 +4117,7 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr"/>
@@ -4227,11 +4199,7 @@
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
@@ -4250,7 +4218,7 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr"/>
@@ -4331,11 +4299,7 @@
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -4354,7 +4318,7 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr"/>
@@ -4740,7 +4704,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4845,7 +4809,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -4949,7 +4913,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -5054,7 +5018,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -5159,7 +5123,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -5263,7 +5227,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -5369,7 +5333,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -5475,7 +5439,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -5580,7 +5544,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -6296,7 +6260,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -6402,7 +6366,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -6507,7 +6471,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -6918,7 +6882,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -7024,7 +6988,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -7129,7 +7093,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -7233,11 +7197,7 @@
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
@@ -7256,7 +7216,7 @@
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr"/>
@@ -7339,11 +7299,7 @@
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
@@ -7362,7 +7318,7 @@
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr"/>
@@ -7444,11 +7400,7 @@
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
@@ -7467,7 +7419,7 @@
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr"/>
@@ -7857,7 +7809,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -7963,7 +7915,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -8068,7 +8020,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -8174,7 +8126,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -8280,7 +8232,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -8385,7 +8337,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -9099,7 +9051,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -9205,7 +9157,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -9412,7 +9364,7 @@
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -9518,7 +9470,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -9623,7 +9575,7 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -10034,7 +9986,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -10140,7 +10092,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -10245,7 +10197,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -10960,7 +10912,7 @@
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -11066,7 +11018,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -11171,7 +11123,7 @@
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -11582,7 +11534,7 @@
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -11688,7 +11640,7 @@
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -11793,7 +11745,7 @@
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -11899,7 +11851,7 @@
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -12005,7 +11957,7 @@
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -12110,7 +12062,7 @@
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -12521,7 +12473,7 @@
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
@@ -12627,7 +12579,7 @@
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
@@ -12732,7 +12684,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
@@ -12838,7 +12790,7 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
@@ -12944,7 +12896,7 @@
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O119" t="inlineStr"/>
@@ -13049,7 +13001,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O120" t="inlineStr"/>
@@ -13154,7 +13106,7 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O121" t="inlineStr"/>
@@ -13257,7 +13209,7 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O122" t="inlineStr"/>
@@ -13360,7 +13312,7 @@
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O123" t="inlineStr"/>
@@ -13462,7 +13414,7 @@
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O124" t="inlineStr"/>
@@ -13563,11 +13515,7 @@
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr">
@@ -13586,7 +13534,7 @@
       <c r="X125" t="inlineStr"/>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr"/>
@@ -13666,11 +13614,7 @@
         </is>
       </c>
       <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr">
@@ -13689,7 +13633,7 @@
       <c r="X126" t="inlineStr"/>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z126" t="inlineStr"/>
@@ -13768,11 +13712,7 @@
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
@@ -13791,7 +13731,7 @@
       <c r="X127" t="inlineStr"/>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr"/>
@@ -13871,11 +13811,7 @@
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr">
@@ -13894,7 +13830,7 @@
       <c r="X128" t="inlineStr"/>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z128" t="inlineStr"/>
@@ -13974,11 +13910,7 @@
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr">
@@ -13997,7 +13929,7 @@
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z129" t="inlineStr"/>
@@ -14076,11 +14008,7 @@
         </is>
       </c>
       <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr">
@@ -14099,7 +14027,7 @@
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr"/>
@@ -14477,7 +14405,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O134" t="inlineStr"/>
@@ -14580,7 +14508,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O135" t="inlineStr"/>
@@ -14682,7 +14610,7 @@
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O136" t="inlineStr"/>
@@ -14786,7 +14714,7 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O137" t="inlineStr"/>
@@ -14890,7 +14818,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O138" t="inlineStr"/>
@@ -14993,7 +14921,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O139" t="inlineStr"/>
@@ -15097,7 +15025,7 @@
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O140" t="inlineStr"/>
@@ -15201,7 +15129,7 @@
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O141" t="inlineStr"/>
@@ -15304,7 +15232,7 @@
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O142" t="inlineStr"/>
@@ -15705,11 +15633,7 @@
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr">
@@ -15728,7 +15652,7 @@
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr"/>
@@ -15809,11 +15733,7 @@
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr">
@@ -15832,7 +15752,7 @@
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr"/>
@@ -15912,11 +15832,7 @@
         </is>
       </c>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr">
@@ -15935,7 +15851,7 @@
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr"/>
@@ -16018,7 +15934,7 @@
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O149" t="inlineStr"/>
@@ -16122,7 +16038,7 @@
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O150" t="inlineStr"/>
@@ -16225,7 +16141,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O151" t="inlineStr"/>
@@ -16328,7 +16244,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O152" t="inlineStr"/>
@@ -16431,7 +16347,7 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O153" t="inlineStr"/>
@@ -16533,7 +16449,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O154" t="inlineStr"/>
@@ -16636,7 +16552,7 @@
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O155" t="inlineStr"/>
@@ -16739,7 +16655,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O156" t="inlineStr"/>
@@ -16841,7 +16757,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O157" t="inlineStr"/>
@@ -17238,11 +17154,7 @@
         </is>
       </c>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr">
@@ -17261,7 +17173,7 @@
       <c r="X161" t="inlineStr"/>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr"/>
@@ -17341,11 +17253,7 @@
         </is>
       </c>
       <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr">
@@ -17364,7 +17272,7 @@
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr"/>
@@ -17443,11 +17351,7 @@
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr">
@@ -17466,7 +17370,7 @@
       <c r="X163" t="inlineStr"/>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z163" t="inlineStr"/>
@@ -17548,7 +17452,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O164" t="inlineStr"/>
@@ -17651,7 +17555,7 @@
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O165" t="inlineStr"/>
@@ -17753,7 +17657,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O166" t="inlineStr"/>
@@ -18154,11 +18058,7 @@
         </is>
       </c>
       <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr">
@@ -18177,7 +18077,7 @@
       <c r="X170" t="inlineStr"/>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr"/>
@@ -18258,11 +18158,7 @@
         </is>
       </c>
       <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr">
@@ -18281,7 +18177,7 @@
       <c r="X171" t="inlineStr"/>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr"/>
@@ -18361,11 +18257,7 @@
         </is>
       </c>
       <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr">
@@ -18384,7 +18276,7 @@
       <c r="X172" t="inlineStr"/>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr"/>
@@ -19065,7 +18957,7 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O179" t="inlineStr"/>
@@ -19169,7 +19061,7 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O180" t="inlineStr"/>
@@ -19272,7 +19164,7 @@
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O181" t="inlineStr"/>
@@ -19376,7 +19268,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O182" t="inlineStr"/>
@@ -19480,7 +19372,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O183" t="inlineStr"/>
@@ -19583,7 +19475,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O184" t="inlineStr"/>
@@ -19685,7 +19577,11 @@
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr">
@@ -19704,7 +19600,7 @@
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr"/>
@@ -19785,7 +19681,11 @@
         </is>
       </c>
       <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr">
@@ -19804,7 +19704,7 @@
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z186" t="inlineStr"/>
@@ -19884,7 +19784,11 @@
         </is>
       </c>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr">
@@ -19903,7 +19807,7 @@
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z187" t="inlineStr"/>
@@ -20283,11 +20187,7 @@
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="inlineStr">
@@ -20306,7 +20206,7 @@
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z191" t="inlineStr"/>
@@ -20387,11 +20287,7 @@
         </is>
       </c>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr">
@@ -20410,7 +20306,7 @@
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z192" t="inlineStr"/>
@@ -20490,11 +20386,7 @@
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr">
@@ -20513,7 +20405,7 @@
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr"/>
@@ -20596,7 +20488,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O194" t="inlineStr"/>
@@ -20700,7 +20592,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O195" t="inlineStr"/>
@@ -20804,7 +20696,7 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O196" t="inlineStr"/>
@@ -20908,7 +20800,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O197" t="inlineStr"/>
@@ -21011,7 +20903,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O198" t="inlineStr"/>
@@ -21414,7 +21306,7 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O202" t="inlineStr"/>
@@ -21518,7 +21410,7 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O203" t="inlineStr"/>
@@ -21621,7 +21513,7 @@
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O204" t="inlineStr"/>
@@ -22520,11 +22412,7 @@
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="inlineStr">
@@ -22543,7 +22431,7 @@
       <c r="X213" t="inlineStr"/>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z213" t="inlineStr"/>
@@ -22624,11 +22512,7 @@
         </is>
       </c>
       <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="inlineStr">
@@ -22647,7 +22531,7 @@
       <c r="X214" t="inlineStr"/>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z214" t="inlineStr"/>
@@ -22727,11 +22611,7 @@
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="inlineStr">
@@ -22750,7 +22630,7 @@
       <c r="X215" t="inlineStr"/>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z215" t="inlineStr"/>
@@ -23430,7 +23310,7 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O222" t="inlineStr"/>
@@ -23534,7 +23414,7 @@
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O223" t="inlineStr"/>
@@ -23637,7 +23517,7 @@
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O224" t="inlineStr"/>
@@ -23741,7 +23621,7 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O225" t="inlineStr"/>
@@ -23845,7 +23725,7 @@
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O226" t="inlineStr"/>
@@ -23948,7 +23828,7 @@
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O227" t="inlineStr"/>
@@ -24050,7 +23930,11 @@
         </is>
       </c>
       <c r="M228" t="inlineStr"/>
-      <c r="N228" t="inlineStr"/>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr"/>
       <c r="Q228" t="inlineStr">
@@ -24069,7 +23953,7 @@
       <c r="X228" t="inlineStr"/>
       <c r="Y228" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z228" t="inlineStr"/>
@@ -24150,7 +24034,11 @@
         </is>
       </c>
       <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr"/>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr"/>
       <c r="Q229" t="inlineStr">
@@ -24169,7 +24057,7 @@
       <c r="X229" t="inlineStr"/>
       <c r="Y229" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z229" t="inlineStr"/>
@@ -24249,7 +24137,11 @@
         </is>
       </c>
       <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr"/>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr"/>
       <c r="Q230" t="inlineStr">
@@ -24268,7 +24160,7 @@
       <c r="X230" t="inlineStr"/>
       <c r="Y230" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z230" t="inlineStr"/>
@@ -24650,7 +24542,7 @@
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O234" t="inlineStr"/>
@@ -24754,7 +24646,7 @@
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O235" t="inlineStr"/>
@@ -24857,7 +24749,7 @@
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O236" t="inlineStr"/>
@@ -24961,7 +24853,7 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O237" t="inlineStr"/>
@@ -25065,7 +24957,7 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O238" t="inlineStr"/>
@@ -25168,7 +25060,7 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O239" t="inlineStr"/>
@@ -26981,7 +26873,7 @@
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O257" t="inlineStr"/>
@@ -27087,7 +26979,7 @@
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O258" t="inlineStr"/>
@@ -27192,7 +27084,7 @@
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O259" t="inlineStr"/>
@@ -28103,7 +27995,7 @@
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O268" t="inlineStr"/>
@@ -28208,7 +28100,7 @@
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O269" t="inlineStr"/>
@@ -28615,7 +28507,7 @@
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O273" t="inlineStr"/>
@@ -28720,7 +28612,7 @@
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O274" t="inlineStr"/>
@@ -29319,7 +29211,7 @@
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O280" t="inlineStr"/>
@@ -29929,7 +29821,7 @@
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O286" t="inlineStr"/>
@@ -30136,7 +30028,7 @@
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O288" t="inlineStr"/>
@@ -31509,11 +31401,7 @@
         </is>
       </c>
       <c r="M302" t="inlineStr"/>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="inlineStr"/>
       <c r="Q302" t="inlineStr">
@@ -31532,7 +31420,7 @@
       <c r="X302" t="inlineStr"/>
       <c r="Y302" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z302" t="inlineStr"/>
@@ -31606,7 +31494,7 @@
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O303" t="inlineStr"/>
@@ -31700,7 +31588,7 @@
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O304" t="inlineStr"/>
@@ -31794,7 +31682,7 @@
       <c r="M305" t="inlineStr"/>
       <c r="N305" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O305" t="inlineStr"/>
@@ -32362,7 +32250,7 @@
       <c r="M311" t="inlineStr"/>
       <c r="N311" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O311" t="inlineStr"/>
@@ -32457,7 +32345,7 @@
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O312" t="inlineStr"/>
@@ -32939,7 +32827,7 @@
       <c r="M317" t="inlineStr"/>
       <c r="N317" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O317" t="inlineStr"/>
@@ -33033,7 +32921,7 @@
       <c r="M318" t="inlineStr"/>
       <c r="N318" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O318" t="inlineStr"/>
@@ -33223,7 +33111,7 @@
       <c r="M320" t="inlineStr"/>
       <c r="N320" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O320" t="inlineStr"/>
@@ -33503,7 +33391,7 @@
       <c r="M323" t="inlineStr"/>
       <c r="N323" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O323" t="inlineStr"/>
@@ -33597,7 +33485,7 @@
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O324" t="inlineStr"/>
@@ -33696,11 +33584,7 @@
         </is>
       </c>
       <c r="M325" t="inlineStr"/>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="inlineStr"/>
       <c r="Q325" t="inlineStr">
@@ -33719,7 +33603,7 @@
       <c r="X325" t="inlineStr"/>
       <c r="Y325" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z325" t="inlineStr"/>
@@ -33799,7 +33683,7 @@
       <c r="M326" t="inlineStr"/>
       <c r="N326" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O326" t="inlineStr"/>
@@ -34179,7 +34063,7 @@
       <c r="M330" t="inlineStr"/>
       <c r="N330" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O330" t="inlineStr"/>
@@ -34271,11 +34155,7 @@
         </is>
       </c>
       <c r="M331" t="inlineStr"/>
-      <c r="N331" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr"/>
       <c r="Q331" t="inlineStr">
@@ -34294,7 +34174,7 @@
       <c r="X331" t="inlineStr"/>
       <c r="Y331" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z331" t="inlineStr"/>
@@ -34368,7 +34248,7 @@
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O332" t="inlineStr"/>
@@ -34558,7 +34438,7 @@
       <c r="M334" t="inlineStr"/>
       <c r="N334" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O334" t="inlineStr"/>
@@ -35118,7 +34998,7 @@
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O340" t="inlineStr"/>
@@ -35301,11 +35181,7 @@
         </is>
       </c>
       <c r="M342" t="inlineStr"/>
-      <c r="N342" t="inlineStr">
-        <is>
-          <t>2024-07-02</t>
-        </is>
-      </c>
+      <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="inlineStr"/>
       <c r="Q342" t="inlineStr">
@@ -35324,7 +35200,7 @@
       <c r="X342" t="inlineStr"/>
       <c r="Y342" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="Z342" t="inlineStr"/>
@@ -36230,7 +36106,11 @@
         </is>
       </c>
       <c r="M352" t="inlineStr"/>
-      <c r="N352" t="inlineStr"/>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr"/>
       <c r="Q352" t="inlineStr">
@@ -36249,7 +36129,7 @@
       <c r="X352" t="inlineStr"/>
       <c r="Y352" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="Z352" t="inlineStr"/>
@@ -36340,7 +36220,7 @@
       <c r="M353" t="inlineStr"/>
       <c r="N353" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="O353" t="inlineStr"/>

--- a/Выгрузка garopt.xlsx
+++ b/Выгрузка garopt.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -788,7 +788,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -893,7 +893,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -997,7 +997,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -1706,7 +1706,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1811,7 +1811,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1915,7 +1915,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -2020,7 +2020,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -2437,7 +2437,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -3153,7 +3153,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3259,7 +3259,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3364,7 +3364,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3470,7 +3470,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -3576,7 +3576,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -3681,7 +3681,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -3786,7 +3786,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -3891,7 +3891,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -3995,7 +3995,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -4704,7 +4704,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4809,7 +4809,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -4913,7 +4913,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -5018,7 +5018,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -5123,7 +5123,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -5227,7 +5227,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -5333,7 +5333,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -5439,7 +5439,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -5544,7 +5544,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -6366,7 +6366,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -6882,7 +6882,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -6988,7 +6988,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -7093,7 +7093,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -7809,7 +7809,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -7915,7 +7915,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -8020,7 +8020,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -8126,7 +8126,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -8232,7 +8232,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -8337,7 +8337,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -9051,7 +9051,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -9157,7 +9157,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -9364,7 +9364,7 @@
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -9470,7 +9470,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -9575,7 +9575,7 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -9986,7 +9986,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -10092,7 +10092,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -10197,7 +10197,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -11018,7 +11018,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -11123,7 +11123,7 @@
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -11534,7 +11534,7 @@
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -11640,7 +11640,7 @@
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -11745,7 +11745,7 @@
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -11851,7 +11851,7 @@
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -11957,7 +11957,7 @@
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -12062,7 +12062,7 @@
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -12473,7 +12473,7 @@
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
@@ -12579,7 +12579,7 @@
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
@@ -12684,7 +12684,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
@@ -12790,7 +12790,7 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
@@ -12896,7 +12896,7 @@
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O119" t="inlineStr"/>
@@ -13001,7 +13001,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O120" t="inlineStr"/>
@@ -13106,7 +13106,7 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O121" t="inlineStr"/>
@@ -13209,7 +13209,7 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O122" t="inlineStr"/>
@@ -13312,7 +13312,7 @@
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O123" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O124" t="inlineStr"/>
@@ -14405,7 +14405,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O134" t="inlineStr"/>
@@ -14508,7 +14508,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O135" t="inlineStr"/>
@@ -14610,7 +14610,7 @@
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O136" t="inlineStr"/>
@@ -14714,7 +14714,7 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O137" t="inlineStr"/>
@@ -14818,7 +14818,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O138" t="inlineStr"/>
@@ -14921,7 +14921,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O139" t="inlineStr"/>
@@ -15025,7 +15025,7 @@
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O140" t="inlineStr"/>
@@ -15129,7 +15129,7 @@
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O141" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O142" t="inlineStr"/>
@@ -15934,7 +15934,7 @@
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O149" t="inlineStr"/>
@@ -16038,7 +16038,7 @@
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O150" t="inlineStr"/>
@@ -16141,7 +16141,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O151" t="inlineStr"/>
@@ -16244,7 +16244,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O152" t="inlineStr"/>
@@ -16347,7 +16347,7 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O153" t="inlineStr"/>
@@ -16449,7 +16449,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O154" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O155" t="inlineStr"/>
@@ -16655,7 +16655,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O156" t="inlineStr"/>
@@ -16757,7 +16757,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O157" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O164" t="inlineStr"/>
@@ -17555,7 +17555,7 @@
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O165" t="inlineStr"/>
@@ -17657,7 +17657,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O166" t="inlineStr"/>
@@ -18957,7 +18957,7 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O179" t="inlineStr"/>
@@ -19061,7 +19061,7 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O180" t="inlineStr"/>
@@ -19164,7 +19164,7 @@
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O181" t="inlineStr"/>
@@ -19268,7 +19268,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O182" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O183" t="inlineStr"/>
@@ -19475,7 +19475,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O184" t="inlineStr"/>
@@ -19579,7 +19579,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O185" t="inlineStr"/>
@@ -19683,7 +19683,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O186" t="inlineStr"/>
@@ -19786,7 +19786,7 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O187" t="inlineStr"/>
@@ -20488,7 +20488,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O194" t="inlineStr"/>
@@ -20592,7 +20592,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O195" t="inlineStr"/>
@@ -20696,7 +20696,7 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O196" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O197" t="inlineStr"/>
@@ -20903,7 +20903,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O198" t="inlineStr"/>
@@ -21306,7 +21306,7 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O202" t="inlineStr"/>
@@ -21410,7 +21410,7 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O203" t="inlineStr"/>
@@ -21513,7 +21513,7 @@
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O204" t="inlineStr"/>
@@ -23310,7 +23310,7 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O222" t="inlineStr"/>
@@ -23414,7 +23414,7 @@
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O223" t="inlineStr"/>
@@ -23517,7 +23517,7 @@
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O224" t="inlineStr"/>
@@ -23621,7 +23621,7 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O225" t="inlineStr"/>
@@ -23725,7 +23725,7 @@
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O226" t="inlineStr"/>
@@ -23828,7 +23828,7 @@
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O227" t="inlineStr"/>
@@ -23932,7 +23932,7 @@
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O228" t="inlineStr"/>
@@ -24036,7 +24036,7 @@
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O229" t="inlineStr"/>
@@ -24139,7 +24139,7 @@
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O230" t="inlineStr"/>
@@ -24542,7 +24542,7 @@
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O234" t="inlineStr"/>
@@ -24646,7 +24646,7 @@
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O235" t="inlineStr"/>
@@ -24749,7 +24749,7 @@
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O236" t="inlineStr"/>
@@ -24853,7 +24853,7 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O237" t="inlineStr"/>
@@ -24957,7 +24957,7 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O238" t="inlineStr"/>
@@ -25060,7 +25060,7 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O239" t="inlineStr"/>
@@ -26873,7 +26873,7 @@
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O257" t="inlineStr"/>
@@ -26979,7 +26979,7 @@
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O258" t="inlineStr"/>
@@ -27084,7 +27084,7 @@
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O259" t="inlineStr"/>
@@ -27995,7 +27995,7 @@
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O268" t="inlineStr"/>
@@ -28100,7 +28100,7 @@
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O269" t="inlineStr"/>
@@ -28507,7 +28507,7 @@
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O273" t="inlineStr"/>
@@ -28612,7 +28612,7 @@
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O274" t="inlineStr"/>
@@ -29211,7 +29211,7 @@
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O280" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O286" t="inlineStr"/>
@@ -30028,7 +30028,7 @@
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O288" t="inlineStr"/>
@@ -31494,7 +31494,7 @@
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O303" t="inlineStr"/>
@@ -31588,7 +31588,7 @@
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O304" t="inlineStr"/>
@@ -31682,7 +31682,7 @@
       <c r="M305" t="inlineStr"/>
       <c r="N305" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O305" t="inlineStr"/>
@@ -32250,7 +32250,7 @@
       <c r="M311" t="inlineStr"/>
       <c r="N311" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O311" t="inlineStr"/>
@@ -32345,7 +32345,7 @@
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O312" t="inlineStr"/>
@@ -32827,7 +32827,7 @@
       <c r="M317" t="inlineStr"/>
       <c r="N317" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O317" t="inlineStr"/>
@@ -32921,7 +32921,7 @@
       <c r="M318" t="inlineStr"/>
       <c r="N318" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O318" t="inlineStr"/>
@@ -33111,7 +33111,7 @@
       <c r="M320" t="inlineStr"/>
       <c r="N320" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O320" t="inlineStr"/>
@@ -33391,7 +33391,7 @@
       <c r="M323" t="inlineStr"/>
       <c r="N323" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O323" t="inlineStr"/>
@@ -33485,7 +33485,7 @@
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O324" t="inlineStr"/>
@@ -33683,7 +33683,7 @@
       <c r="M326" t="inlineStr"/>
       <c r="N326" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O326" t="inlineStr"/>
@@ -34063,7 +34063,7 @@
       <c r="M330" t="inlineStr"/>
       <c r="N330" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O330" t="inlineStr"/>
@@ -34248,7 +34248,7 @@
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O332" t="inlineStr"/>
@@ -34438,7 +34438,7 @@
       <c r="M334" t="inlineStr"/>
       <c r="N334" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O334" t="inlineStr"/>
@@ -34998,7 +34998,7 @@
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O340" t="inlineStr"/>
@@ -36108,7 +36108,7 @@
       <c r="M352" t="inlineStr"/>
       <c r="N352" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O352" t="inlineStr"/>
@@ -36220,7 +36220,7 @@
       <c r="M353" t="inlineStr"/>
       <c r="N353" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O353" t="inlineStr"/>
